--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,22 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA4333F-66AB-435D-B5C8-6A2EE0B6638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2786F5-640E-4DB0-A5B8-049024F06190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
-    <sheet name="Selected Vehicle Page" sheetId="2" r:id="rId2"/>
-    <sheet name="Book Service" sheetId="3" r:id="rId3"/>
+    <sheet name="OTP Page" sheetId="9" r:id="rId2"/>
+    <sheet name="Selected Vehicle Page" sheetId="2" r:id="rId3"/>
     <sheet name="My Profile" sheetId="5" r:id="rId4"/>
+    <sheet name="Emergency_contact" sheetId="6" r:id="rId5"/>
+    <sheet name="Book Service" sheetId="7" r:id="rId6"/>
+    <sheet name="Goodlife" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>8800996793</t>
   </si>
@@ -26,18 +29,9 @@
     <t>995859</t>
   </si>
   <si>
-    <t>Goodlife nonmem</t>
-  </si>
-  <si>
     <t>Book service FSC</t>
   </si>
   <si>
-    <t>2537461015</t>
-  </si>
-  <si>
-    <t>8800996794</t>
-  </si>
-  <si>
     <t>Valid mob number</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>110091</t>
   </si>
   <si>
-    <t>01-02-2023</t>
-  </si>
-  <si>
     <t>Invalid Full Name</t>
   </si>
   <si>
@@ -98,10 +89,235 @@
     <t>ABCD</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>f30, mumbai, bandra east +++++++@#%^^&amp;%^*!@#$@#$%^*^(</t>
+    <t>Valid_fullName</t>
+  </si>
+  <si>
+    <t>Valid_mobNumber</t>
+  </si>
+  <si>
+    <t>Valid_relationType</t>
+  </si>
+  <si>
+    <t>Invalid_fullName</t>
+  </si>
+  <si>
+    <t>Invalid_mobNumber</t>
+  </si>
+  <si>
+    <t>Invalid_relationType</t>
+  </si>
+  <si>
+    <t>Me</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>880099</t>
+  </si>
+  <si>
+    <t>Valid Emergency_Contacts_details</t>
+  </si>
+  <si>
+    <t>Invalid Emergency_Contacts_details</t>
+  </si>
+  <si>
+    <t>8809967681</t>
+  </si>
+  <si>
+    <t>Valid Book service details</t>
+  </si>
+  <si>
+    <t>Other's issues</t>
+  </si>
+  <si>
+    <t>Invalid Book service details</t>
+  </si>
+  <si>
+    <t>asdanskdajskdamskdnaskdnkwanknaskdnasndmasndn cxjaosduowquehjasnbdasjdkajskdajieuwiruweiruwiejdkasdkjasldkjowaieowqieorieirhaskjndasndknaskdjkajsdiwqueijwqekrjksabdkasnbdjasdjahsjdhoiwqueieuwqriyewriyweirjksnamdndmxz bcnzxb cnznbksjdakjwiuweiruohjaksdaksdkahsdkjawiehyrwiuehruiwerjwheriuweroiwqiehjqw</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;
+          &lt;h1&gt;Recent users queries:&lt;/h1&gt;
+          &lt;ol&gt;
+               &lt;li&gt;&lt;h2&gt;{user-query-1}&lt;/h2&gt; 
+               &lt;li&gt;&lt;h2&gt;{user-query-2}&lt;/h2&gt;
+         &lt;/ol&gt;
+      &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>NomineeName</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>NomineeContactNumber</t>
+  </si>
+  <si>
+    <t>8130998133</t>
+  </si>
+  <si>
+    <t>RelativeName</t>
+  </si>
+  <si>
+    <t>Goodlife (Valid Insurance Page Details)</t>
+  </si>
+  <si>
+    <t>Goodlife (Invalid Insurance Page Details)</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Karan1231239839172381aksdjkasjdaks#$%#&amp;</t>
+  </si>
+  <si>
+    <t>abcdef</t>
+  </si>
+  <si>
+    <t>ASDASDAJSDKNQEJ@#$$^%^%$%&amp;^%ADLKASDMASMD#@$#@%@^$%^%$&amp;^^%MSDFKSDF</t>
+  </si>
+  <si>
+    <t>abcd123&amp;#*$()</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>f30mumbaibandraeast+++++++@#%^^&amp;%^*!@#$@#$%^*^(</t>
+  </si>
+  <si>
+    <t>2537461014</t>
+  </si>
+  <si>
+    <t>Mobile numbers</t>
+  </si>
+  <si>
+    <t>Login ( Expected results )</t>
+  </si>
+  <si>
+    <t>assertion_of_valid_login</t>
+  </si>
+  <si>
+    <t>assertion_of_invalid_login</t>
+  </si>
+  <si>
+    <t>Mobile Number is not registered</t>
+  </si>
+  <si>
+    <t>assertion_of_common_inLogin_page</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname's</t>
+  </si>
+  <si>
+    <t>Book service PAID</t>
+  </si>
+  <si>
+    <t>Verify with OTP</t>
+  </si>
+  <si>
+    <t>OTP (Expected results)</t>
+  </si>
+  <si>
+    <t>assertion_invalid_OTP</t>
+  </si>
+  <si>
+    <t>Invalid Otp</t>
+  </si>
+  <si>
+    <t>assertion_valid_OTP_with_no_internet</t>
+  </si>
+  <si>
+    <t>Please check your network connection.</t>
+  </si>
+  <si>
+    <t>1/2/23</t>
+  </si>
+  <si>
+    <t>1/2/01</t>
+  </si>
+  <si>
+    <t>Personal vaild details (Under my profile)</t>
+  </si>
+  <si>
+    <t>Personal invaild details (Under my profile)</t>
+  </si>
+  <si>
+    <t>Personal details page (Expected results)</t>
+  </si>
+  <si>
+    <t>validation_of_blank_fullName_field</t>
+  </si>
+  <si>
+    <t>validation_of_enter_invalid_email_field</t>
+  </si>
+  <si>
+    <t>validation_of_saving_without_internet</t>
+  </si>
+  <si>
+    <t>validation_of_invalid_date</t>
+  </si>
+  <si>
+    <t>validation_of_address</t>
+  </si>
+  <si>
+    <t>validation_of_invalid_pincode</t>
+  </si>
+  <si>
+    <t>gunjanrawat003@gmail.com</t>
+  </si>
+  <si>
+    <t>Age must be of 18yr old</t>
+  </si>
+  <si>
+    <t>f30mumbaibandraeast</t>
+  </si>
+  <si>
+    <t>Not to able to get state and city from pincode</t>
+  </si>
+  <si>
+    <t>Valid saved contact number</t>
+  </si>
+  <si>
+    <t>Emergency contact page (Expected results)</t>
+  </si>
+  <si>
+    <t>validation_of_deleting_contact</t>
+  </si>
+  <si>
+    <t>Add Emergency contact</t>
+  </si>
+  <si>
+    <t>assertion_of_already_exist_contact</t>
+  </si>
+  <si>
+    <t>This Emergency Contact Already Exists</t>
+  </si>
+  <si>
+    <t>validation_of_invalid_fullName</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>Validation_of_saving_blank_and_invalid_field</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Relation Type</t>
+  </si>
+  <si>
+    <t>validation_saving_with_no_internet</t>
   </si>
 </sst>
 </file>
@@ -117,16 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -135,18 +341,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF2A00FF"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,20 +387,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,7 +757,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D31A8F-3FBA-4F47-85D0-BA6DBB6214F8}">
+  <dimension ref="A8:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="39.08984375" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="44.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="48.6328125" customWidth="1"/>
+    <col min="2" max="2" width="52.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{AC2E004A-B721-44EF-A519-77594C330DB5}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{1E98206A-73D5-4A8D-94B1-7EF178E5E015}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{1526CF94-F6A9-4F64-9F94-C88E5E5C3A03}"/>
+    <hyperlink ref="B26" r:id="rId4" xr:uid="{559745FE-7564-41C2-9E82-584DD90D55A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC974FB1-DE16-4A47-8399-1BAE83A3EDA8}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.90625" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDB8472-B486-47FF-A7BC-EA275ED1BDE9}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -522,199 +1296,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6CCBC5-1399-4ECF-9AF6-16C29B60B677}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="57.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{86BA8BCA-8DBA-4CBE-A7EB-756739F75076}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{0845EB4D-D4B2-4E47-A392-66DCDC5D0744}"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{F36C9C6B-09C5-44E8-8D59-F487BC8D988E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2786F5-640E-4DB0-A5B8-049024F06190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD92FAD4-2A62-432A-9626-34B61C496A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
   <si>
     <t>8800996793</t>
   </si>
@@ -228,9 +228,6 @@
   </si>
   <si>
     <t>assertion_invalid_OTP</t>
-  </si>
-  <si>
-    <t>Invalid Otp</t>
   </si>
   <si>
     <t>assertion_valid_OTP_with_no_internet</t>
@@ -853,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D31A8F-3FBA-4F47-85D0-BA6DBB6214F8}">
   <dimension ref="A8:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,16 +870,16 @@
       <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
-        <v>67</v>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -947,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,7 +956,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="9"/>
     </row>
@@ -984,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1017,7 +1014,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="9"/>
     </row>
@@ -1042,7 +1039,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1075,13 +1072,13 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1089,42 +1086,42 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC974FB1-DE16-4A47-8399-1BAE83A3EDA8}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1188,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>42</v>
@@ -1224,45 +1221,45 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
         <v>89</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
         <v>91</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
         <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>94</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1270,10 +1267,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD92FAD4-2A62-432A-9626-34B61C496A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE1E6E-1C38-475D-BA5A-013675561759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="96">
-  <si>
-    <t>8800996793</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
   <si>
     <t>995859</t>
   </si>
@@ -315,6 +312,12 @@
   </si>
   <si>
     <t>validation_saving_with_no_internet</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>9958592171</t>
   </si>
 </sst>
 </file>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -768,32 +771,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -805,32 +808,32 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -850,7 +853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D31A8F-3FBA-4F47-85D0-BA6DBB6214F8}">
   <dimension ref="A8:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -862,24 +865,24 @@
   <sheetData>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -907,24 +910,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -944,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,48 +959,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1014,48 +1017,48 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1072,56 +1075,56 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1158,108 +1161,108 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
         <v>86</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
         <v>92</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1267,10 +1270,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1299,30 +1302,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1351,62 +1354,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBE1E6E-1C38-475D-BA5A-013675561759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F7B1F-4C2B-485C-B701-7DE86CAEA756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -179,145 +179,145 @@
     <t>abcd123&amp;#*$()</t>
   </si>
   <si>
+    <t>f30mumbaibandraeast+++++++@#%^^&amp;%^*!@#$@#$%^*^(</t>
+  </si>
+  <si>
+    <t>2537461014</t>
+  </si>
+  <si>
+    <t>Mobile numbers</t>
+  </si>
+  <si>
+    <t>Login ( Expected results )</t>
+  </si>
+  <si>
+    <t>assertion_of_valid_login</t>
+  </si>
+  <si>
+    <t>assertion_of_invalid_login</t>
+  </si>
+  <si>
+    <t>Mobile Number is not registered</t>
+  </si>
+  <si>
+    <t>assertion_of_common_inLogin_page</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname's</t>
+  </si>
+  <si>
+    <t>Book service PAID</t>
+  </si>
+  <si>
+    <t>Verify with OTP</t>
+  </si>
+  <si>
+    <t>OTP (Expected results)</t>
+  </si>
+  <si>
+    <t>assertion_invalid_OTP</t>
+  </si>
+  <si>
+    <t>assertion_valid_OTP_with_no_internet</t>
+  </si>
+  <si>
+    <t>Please check your network connection.</t>
+  </si>
+  <si>
+    <t>1/2/23</t>
+  </si>
+  <si>
+    <t>1/2/01</t>
+  </si>
+  <si>
+    <t>Personal vaild details (Under my profile)</t>
+  </si>
+  <si>
+    <t>Personal invaild details (Under my profile)</t>
+  </si>
+  <si>
+    <t>Personal details page (Expected results)</t>
+  </si>
+  <si>
+    <t>validation_of_blank_fullName_field</t>
+  </si>
+  <si>
+    <t>validation_of_enter_invalid_email_field</t>
+  </si>
+  <si>
+    <t>validation_of_saving_without_internet</t>
+  </si>
+  <si>
+    <t>validation_of_invalid_date</t>
+  </si>
+  <si>
+    <t>validation_of_address</t>
+  </si>
+  <si>
+    <t>validation_of_invalid_pincode</t>
+  </si>
+  <si>
+    <t>gunjanrawat003@gmail.com</t>
+  </si>
+  <si>
+    <t>Age must be of 18yr old</t>
+  </si>
+  <si>
+    <t>f30mumbaibandraeast</t>
+  </si>
+  <si>
+    <t>Valid saved contact number</t>
+  </si>
+  <si>
+    <t>Emergency contact page (Expected results)</t>
+  </si>
+  <si>
+    <t>validation_of_deleting_contact</t>
+  </si>
+  <si>
+    <t>Add Emergency contact</t>
+  </si>
+  <si>
+    <t>assertion_of_already_exist_contact</t>
+  </si>
+  <si>
+    <t>This Emergency Contact Already Exists</t>
+  </si>
+  <si>
+    <t>validation_of_invalid_fullName</t>
+  </si>
+  <si>
+    <t>abcd123</t>
+  </si>
+  <si>
+    <t>Validation_of_saving_blank_and_invalid_field</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Relation Type</t>
+  </si>
+  <si>
+    <t>validation_saving_with_no_internet</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>9958592171</t>
+  </si>
+  <si>
+    <t>PIN Code</t>
+  </si>
+  <si>
     <t>000000</t>
-  </si>
-  <si>
-    <t>f30mumbaibandraeast+++++++@#%^^&amp;%^*!@#$@#$%^*^(</t>
-  </si>
-  <si>
-    <t>2537461014</t>
-  </si>
-  <si>
-    <t>Mobile numbers</t>
-  </si>
-  <si>
-    <t>Login ( Expected results )</t>
-  </si>
-  <si>
-    <t>assertion_of_valid_login</t>
-  </si>
-  <si>
-    <t>assertion_of_invalid_login</t>
-  </si>
-  <si>
-    <t>Mobile Number is not registered</t>
-  </si>
-  <si>
-    <t>assertion_of_common_inLogin_page</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Vehicle Nickname</t>
-  </si>
-  <si>
-    <t>Vehicle Nickname's</t>
-  </si>
-  <si>
-    <t>Book service PAID</t>
-  </si>
-  <si>
-    <t>Verify with OTP</t>
-  </si>
-  <si>
-    <t>OTP (Expected results)</t>
-  </si>
-  <si>
-    <t>assertion_invalid_OTP</t>
-  </si>
-  <si>
-    <t>assertion_valid_OTP_with_no_internet</t>
-  </si>
-  <si>
-    <t>Please check your network connection.</t>
-  </si>
-  <si>
-    <t>1/2/23</t>
-  </si>
-  <si>
-    <t>1/2/01</t>
-  </si>
-  <si>
-    <t>Personal vaild details (Under my profile)</t>
-  </si>
-  <si>
-    <t>Personal invaild details (Under my profile)</t>
-  </si>
-  <si>
-    <t>Personal details page (Expected results)</t>
-  </si>
-  <si>
-    <t>validation_of_blank_fullName_field</t>
-  </si>
-  <si>
-    <t>validation_of_enter_invalid_email_field</t>
-  </si>
-  <si>
-    <t>validation_of_saving_without_internet</t>
-  </si>
-  <si>
-    <t>validation_of_invalid_date</t>
-  </si>
-  <si>
-    <t>validation_of_address</t>
-  </si>
-  <si>
-    <t>validation_of_invalid_pincode</t>
-  </si>
-  <si>
-    <t>gunjanrawat003@gmail.com</t>
-  </si>
-  <si>
-    <t>Age must be of 18yr old</t>
-  </si>
-  <si>
-    <t>f30mumbaibandraeast</t>
-  </si>
-  <si>
-    <t>Not to able to get state and city from pincode</t>
-  </si>
-  <si>
-    <t>Valid saved contact number</t>
-  </si>
-  <si>
-    <t>Emergency contact page (Expected results)</t>
-  </si>
-  <si>
-    <t>validation_of_deleting_contact</t>
-  </si>
-  <si>
-    <t>Add Emergency contact</t>
-  </si>
-  <si>
-    <t>assertion_of_already_exist_contact</t>
-  </si>
-  <si>
-    <t>This Emergency Contact Already Exists</t>
-  </si>
-  <si>
-    <t>validation_of_invalid_fullName</t>
-  </si>
-  <si>
-    <t>abcd123</t>
-  </si>
-  <si>
-    <t>Validation_of_saving_blank_and_invalid_field</t>
-  </si>
-  <si>
-    <t>Full Name</t>
-  </si>
-  <si>
-    <t>Relation Type</t>
-  </si>
-  <si>
-    <t>validation_saving_with_no_internet</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>9958592171</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -405,6 +405,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -770,17 +773,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -788,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -807,33 +810,33 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="8"/>
+      <c r="A11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
         <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -864,25 +867,25 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="9"/>
+      <c r="A8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -909,30 +912,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -947,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -958,10 +961,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -984,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1016,10 +1019,10 @@
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="9"/>
+      <c r="A13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1042,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1050,15 +1053,15 @@
         <v>17</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
+      <c r="B18" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1074,14 +1077,14 @@
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="9"/>
+      <c r="A24" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1089,42 +1092,42 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1160,10 +1163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1191,17 +1194,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1224,45 +1227,45 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="9"/>
+      <c r="A19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1270,10 +1273,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1301,10 +1304,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1315,10 +1318,10 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1343,7 +1346,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1353,10 +1356,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1383,10 +1386,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159F7B1F-4C2B-485C-B701-7DE86CAEA756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0709B19-6B38-4A8D-8E74-FD6F8B08F20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>995859</t>
-  </si>
-  <si>
-    <t>Book service FSC</t>
   </si>
   <si>
     <t>Valid mob number</t>
@@ -206,9 +203,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Vehicle Nickname</t>
-  </si>
-  <si>
     <t>Vehicle Nickname's</t>
   </si>
   <si>
@@ -318,6 +312,21 @@
   </si>
   <si>
     <t>000000</t>
+  </si>
+  <si>
+    <t>7777700189</t>
+  </si>
+  <si>
+    <t>Goodlife Member</t>
+  </si>
+  <si>
+    <t>Goodlife member mob number</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname1</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname2</t>
   </si>
 </sst>
 </file>
@@ -763,7 +772,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,36 +783,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
@@ -811,32 +825,32 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
         <v>57</v>
-      </c>
-      <c r="B14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -868,24 +882,24 @@
   <sheetData>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -901,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,24 +927,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -950,7 +964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -962,48 +976,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1020,48 +1034,48 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1078,56 +1092,56 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1164,108 +1178,108 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="10"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1273,10 +1287,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1305,30 +1319,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1357,62 +1371,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0709B19-6B38-4A8D-8E74-FD6F8B08F20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E6435A-3EFC-42E7-A5AE-8395464C3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Emergency_contact" sheetId="6" r:id="rId5"/>
     <sheet name="Book Service" sheetId="7" r:id="rId6"/>
     <sheet name="Goodlife" sheetId="8" r:id="rId7"/>
+    <sheet name="Goodlife Member" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>995859</t>
   </si>
@@ -185,42 +186,9 @@
     <t>Mobile numbers</t>
   </si>
   <si>
-    <t>Login ( Expected results )</t>
-  </si>
-  <si>
-    <t>assertion_of_valid_login</t>
-  </si>
-  <si>
-    <t>assertion_of_invalid_login</t>
-  </si>
-  <si>
-    <t>Mobile Number is not registered</t>
-  </si>
-  <si>
-    <t>assertion_of_common_inLogin_page</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Vehicle Nickname's</t>
   </si>
   <si>
-    <t>Book service PAID</t>
-  </si>
-  <si>
-    <t>Verify with OTP</t>
-  </si>
-  <si>
-    <t>OTP (Expected results)</t>
-  </si>
-  <si>
-    <t>assertion_invalid_OTP</t>
-  </si>
-  <si>
-    <t>assertion_valid_OTP_with_no_internet</t>
-  </si>
-  <si>
     <t>Please check your network connection.</t>
   </si>
   <si>
@@ -314,12 +282,6 @@
     <t>000000</t>
   </si>
   <si>
-    <t>7777700189</t>
-  </si>
-  <si>
-    <t>Goodlife Member</t>
-  </si>
-  <si>
     <t>Goodlife member mob number</t>
   </si>
   <si>
@@ -327,6 +289,21 @@
   </si>
   <si>
     <t>Vehicle Nickname2</t>
+  </si>
+  <si>
+    <t>Goodlife Member Valid Details</t>
+  </si>
+  <si>
+    <t>Winner Of The Month</t>
+  </si>
+  <si>
+    <t>MANISH VERMA</t>
+  </si>
+  <si>
+    <t>book service paid</t>
+  </si>
+  <si>
+    <t>goodlife member</t>
   </si>
 </sst>
 </file>
@@ -421,10 +398,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -769,16 +746,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -792,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -813,10 +790,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -824,42 +801,11 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
+      <c r="B11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -868,44 +814,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D31A8F-3FBA-4F47-85D0-BA6DBB6214F8}">
-  <dimension ref="A8:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.08984375" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="1" max="1" width="39.08984375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47" customWidth="1" collapsed="1"/>
   </cols>
-  <sheetData>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="10"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A8:B8"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -915,41 +835,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="44.90625" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -964,21 +884,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="52.90625" customWidth="1"/>
+    <col min="1" max="1" width="48.6328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="52.90625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1001,7 +921,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1033,10 +953,10 @@
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="10"/>
+      <c r="A13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="11"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1059,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1075,7 +995,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1091,14 +1011,14 @@
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="10"/>
+      <c r="A24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -1106,42 +1026,42 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1091,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.90625" customWidth="1"/>
-    <col min="2" max="2" width="53" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="46.90625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1208,17 +1128,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -1241,45 +1161,45 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1287,10 +1207,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1313,15 +1233,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="45.7265625" customWidth="1"/>
+    <col min="1" max="1" width="35" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1335,7 +1255,7 @@
       <c r="A8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -1365,15 +1285,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.453125" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6328125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1400,10 +1320,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1440,4 +1360,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F17E65-FAAF-45A5-B8DE-BC6018B33B5D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.6328125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="43.54296875" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E6435A-3EFC-42E7-A5AE-8395464C3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926B8FEE-A37F-4E94-A89F-84576179714F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>995859</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>goodlife member</t>
+  </si>
+  <si>
+    <t>6666600011</t>
   </si>
 </sst>
 </file>
@@ -748,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -902,179 +905,179 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="11"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="11"/>
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+    </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="3"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
+      <c r="A23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="11"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="11"/>
+      <c r="A24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{AC2E004A-B721-44EF-A519-77594C330DB5}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{1E98206A-73D5-4A8D-94B1-7EF178E5E015}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{1526CF94-F6A9-4F64-9F94-C88E5E5C3A03}"/>
-    <hyperlink ref="B26" r:id="rId4" xr:uid="{559745FE-7564-41C2-9E82-584DD90D55A4}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{AC2E004A-B721-44EF-A519-77594C330DB5}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{1E98206A-73D5-4A8D-94B1-7EF178E5E015}"/>
+    <hyperlink ref="B16" r:id="rId3" xr:uid="{1526CF94-F6A9-4F64-9F94-C88E5E5C3A03}"/>
+    <hyperlink ref="B25" r:id="rId4" xr:uid="{559745FE-7564-41C2-9E82-584DD90D55A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926B8FEE-A37F-4E94-A89F-84576179714F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A8FE1-4D33-4A8C-9102-89E0A060B914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>995859</t>
   </si>
@@ -63,21 +63,6 @@
     <t>110091</t>
   </si>
   <si>
-    <t>Invalid Full Name</t>
-  </si>
-  <si>
-    <t>Invalid Email</t>
-  </si>
-  <si>
-    <t>Invalid DOB</t>
-  </si>
-  <si>
-    <t>Invalid Address</t>
-  </si>
-  <si>
-    <t>Invalid Pincode</t>
-  </si>
-  <si>
     <t>Abhay@0000001</t>
   </si>
   <si>
@@ -93,9 +78,6 @@
     <t>Valid_relationType</t>
   </si>
   <si>
-    <t>Invalid_fullName</t>
-  </si>
-  <si>
     <t>Invalid_mobNumber</t>
   </si>
   <si>
@@ -112,9 +94,6 @@
   </si>
   <si>
     <t>Valid Emergency_Contacts_details</t>
-  </si>
-  <si>
-    <t>Invalid Emergency_Contacts_details</t>
   </si>
   <si>
     <t>8809967681</t>
@@ -174,146 +153,152 @@
     <t>ASDASDAJSDKNQEJ@#$$^%^%$%&amp;^%ADLKASDMASMD#@$#@%@^$%^%$&amp;^^%MSDFKSDF</t>
   </si>
   <si>
+    <t>f30mumbaibandraeast+++++++@#%^^&amp;%^*!@#$@#$%^*^(</t>
+  </si>
+  <si>
+    <t>2537461014</t>
+  </si>
+  <si>
+    <t>Mobile numbers</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname's</t>
+  </si>
+  <si>
+    <t>1/2/23</t>
+  </si>
+  <si>
+    <t>1/2/01</t>
+  </si>
+  <si>
+    <t>Personal vaild details (Under my profile)</t>
+  </si>
+  <si>
+    <t>Valid saved contact number</t>
+  </si>
+  <si>
+    <t>Relation Type</t>
+  </si>
+  <si>
+    <t>9958592171</t>
+  </si>
+  <si>
+    <t>Goodlife member mob number</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname1</t>
+  </si>
+  <si>
+    <t>Vehicle Nickname2</t>
+  </si>
+  <si>
+    <t>Goodlife Member Valid Details</t>
+  </si>
+  <si>
+    <t>Winner Of The Month</t>
+  </si>
+  <si>
+    <t>MANISH VERMA</t>
+  </si>
+  <si>
+    <t>book service paid</t>
+  </si>
+  <si>
+    <t>goodlife member</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gunjanrawatGmail.</t>
+  </si>
+  <si>
+    <t>!@!@222</t>
+  </si>
+  <si>
+    <t>Invalid Email with number</t>
+  </si>
+  <si>
+    <t>Invalid Email with special character</t>
+  </si>
+  <si>
+    <t>Invalid Email with number alphabetic</t>
+  </si>
+  <si>
+    <t>Invalid Email with number alphanumeric</t>
+  </si>
+  <si>
+    <t>Invalid DOB with number</t>
+  </si>
+  <si>
+    <t>00-01-190000000</t>
+  </si>
+  <si>
+    <t>Invalid Email with blank String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t>Invalid DOB with number alphanumeric</t>
+  </si>
+  <si>
+    <t>Invalid DOB with blank String</t>
+  </si>
+  <si>
+    <t>Invalid DOB with number alphabetic</t>
+  </si>
+  <si>
+    <t>Invalid DOB with special character</t>
+  </si>
+  <si>
+    <t>InValid FullName with Email</t>
+  </si>
+  <si>
+    <t>InValid FullName with DOB</t>
+  </si>
+  <si>
+    <t>InValid FullName with Address</t>
+  </si>
+  <si>
+    <t>InValid FullName with Pincode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '          '      </t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>Invalid pincode with alphanumeric</t>
+  </si>
+  <si>
+    <t>Invalid pincode with FullName</t>
+  </si>
+  <si>
+    <t>Invalid pincode with DOB</t>
+  </si>
+  <si>
+    <t>Invalid pincode with long special char alphanumeric</t>
+  </si>
+  <si>
+    <t>Invalid pincode with number</t>
+  </si>
+  <si>
+    <t>Invalid Emergency_Contacts_details</t>
+  </si>
+  <si>
+    <t>Invalid_fullName</t>
+  </si>
+  <si>
     <t>abcd123&amp;#*$()</t>
   </si>
   <si>
-    <t>f30mumbaibandraeast+++++++@#%^^&amp;%^*!@#$@#$%^*^(</t>
-  </si>
-  <si>
-    <t>2537461014</t>
-  </si>
-  <si>
-    <t>Mobile numbers</t>
-  </si>
-  <si>
-    <t>Vehicle Nickname's</t>
-  </si>
-  <si>
-    <t>Please check your network connection.</t>
-  </si>
-  <si>
-    <t>1/2/23</t>
-  </si>
-  <si>
-    <t>1/2/01</t>
-  </si>
-  <si>
-    <t>Personal vaild details (Under my profile)</t>
-  </si>
-  <si>
-    <t>Personal invaild details (Under my profile)</t>
-  </si>
-  <si>
-    <t>Personal details page (Expected results)</t>
-  </si>
-  <si>
-    <t>validation_of_blank_fullName_field</t>
-  </si>
-  <si>
-    <t>validation_of_enter_invalid_email_field</t>
-  </si>
-  <si>
-    <t>validation_of_saving_without_internet</t>
-  </si>
-  <si>
-    <t>validation_of_invalid_date</t>
-  </si>
-  <si>
-    <t>validation_of_address</t>
-  </si>
-  <si>
-    <t>validation_of_invalid_pincode</t>
-  </si>
-  <si>
-    <t>gunjanrawat003@gmail.com</t>
-  </si>
-  <si>
-    <t>Age must be of 18yr old</t>
-  </si>
-  <si>
-    <t>f30mumbaibandraeast</t>
-  </si>
-  <si>
-    <t>Valid saved contact number</t>
-  </si>
-  <si>
-    <t>Emergency contact page (Expected results)</t>
-  </si>
-  <si>
-    <t>validation_of_deleting_contact</t>
-  </si>
-  <si>
-    <t>Add Emergency contact</t>
-  </si>
-  <si>
-    <t>assertion_of_already_exist_contact</t>
-  </si>
-  <si>
-    <t>This Emergency Contact Already Exists</t>
-  </si>
-  <si>
-    <t>validation_of_invalid_fullName</t>
-  </si>
-  <si>
-    <t>abcd123</t>
-  </si>
-  <si>
-    <t>Validation_of_saving_blank_and_invalid_field</t>
-  </si>
-  <si>
-    <t>Full Name</t>
-  </si>
-  <si>
-    <t>Relation Type</t>
-  </si>
-  <si>
-    <t>validation_saving_with_no_internet</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>9958592171</t>
-  </si>
-  <si>
-    <t>PIN Code</t>
-  </si>
-  <si>
-    <t>000000</t>
-  </si>
-  <si>
-    <t>Goodlife member mob number</t>
-  </si>
-  <si>
-    <t>Vehicle Nickname1</t>
-  </si>
-  <si>
-    <t>Vehicle Nickname2</t>
-  </si>
-  <si>
-    <t>Goodlife Member Valid Details</t>
-  </si>
-  <si>
-    <t>Winner Of The Month</t>
-  </si>
-  <si>
-    <t>MANISH VERMA</t>
-  </si>
-  <si>
-    <t>book service paid</t>
-  </si>
-  <si>
-    <t>goodlife member</t>
-  </si>
-  <si>
-    <t>6666600011</t>
+    <t>9926438293</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,12 +328,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -392,12 +371,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,9 +406,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -469,9 +446,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,26 +481,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,26 +516,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -752,7 +695,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,7 +706,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B1" s="9"/>
     </row>
@@ -772,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -780,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -793,10 +736,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -850,24 +793,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -885,10 +828,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,7 +842,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -916,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -944,152 +887,264 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="3"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B35" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="8"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="8"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>82</v>
       </c>
+      <c r="B48" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AC2E004A-B721-44EF-A519-77594C330DB5}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{1E98206A-73D5-4A8D-94B1-7EF178E5E015}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{1526CF94-F6A9-4F64-9F94-C88E5E5C3A03}"/>
-    <hyperlink ref="B25" r:id="rId4" xr:uid="{559745FE-7564-41C2-9E82-584DD90D55A4}"/>
+    <hyperlink ref="B48" r:id="rId2" xr:uid="{1526CF94-F6A9-4F64-9F94-C88E5E5C3A03}"/>
+    <hyperlink ref="B28" r:id="rId3" xr:uid="{1D5CDED9-E218-483E-B9F9-DCBE9AC71FF8}"/>
+    <hyperlink ref="B39" r:id="rId4" xr:uid="{FB9535D0-8DA2-48B4-B5E7-5FED86DB5A36}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{E71D9D53-EAA1-4D05-A6CE-C05622A09299}"/>
+    <hyperlink ref="B45" r:id="rId6" xr:uid="{1E98206A-73D5-4A8D-94B1-7EF178E5E015}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC974FB1-DE16-4A47-8399-1BAE83A3EDA8}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1101,126 +1156,92 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1242,30 +1263,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1294,62 +1315,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1381,16 +1402,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3A8FE1-4D33-4A8C-9102-89E0A060B914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E550D5-9906-4424-866F-28FBFD388A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>abcd123&amp;#*$()</t>
   </si>
   <si>
-    <t>9926438293</t>
+    <t>7777777777</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E550D5-9906-4424-866F-28FBFD388A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09A997D-434B-4234-9627-73331BA87B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,7 +291,7 @@
     <t>abcd123&amp;#*$()</t>
   </si>
   <si>
-    <t>7777777777</t>
+    <t>6666600022</t>
   </si>
 </sst>
 </file>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09A997D-434B-4234-9627-73331BA87B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D8D2B4-E9D0-4EF9-9A59-A5D76613E0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
-    <sheet name="OTP Page" sheetId="9" r:id="rId2"/>
-    <sheet name="Selected Vehicle Page" sheetId="2" r:id="rId3"/>
-    <sheet name="My Profile" sheetId="5" r:id="rId4"/>
-    <sheet name="Emergency_contact" sheetId="6" r:id="rId5"/>
+    <sheet name="Selected Vehicle Page" sheetId="2" r:id="rId2"/>
+    <sheet name="My Profile" sheetId="5" r:id="rId3"/>
+    <sheet name="Emergency_contact" sheetId="6" r:id="rId4"/>
+    <sheet name="Refer a friend" sheetId="11" r:id="rId5"/>
     <sheet name="Book Service" sheetId="7" r:id="rId6"/>
     <sheet name="Goodlife" sheetId="8" r:id="rId7"/>
     <sheet name="Goodlife Member" sheetId="10" r:id="rId8"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="107">
   <si>
     <t>995859</t>
   </si>
@@ -78,19 +78,10 @@
     <t>Valid_relationType</t>
   </si>
   <si>
-    <t>Invalid_mobNumber</t>
-  </si>
-  <si>
-    <t>Invalid_relationType</t>
-  </si>
-  <si>
     <t>Me</t>
   </si>
   <si>
     <t>Friend</t>
-  </si>
-  <si>
-    <t>880099</t>
   </si>
   <si>
     <t>Valid Emergency_Contacts_details</t>
@@ -177,9 +168,6 @@
     <t>Valid saved contact number</t>
   </si>
   <si>
-    <t>Relation Type</t>
-  </si>
-  <si>
     <t>9958592171</t>
   </si>
   <si>
@@ -285,13 +273,82 @@
     <t>Invalid Emergency_Contacts_details</t>
   </si>
   <si>
-    <t>Invalid_fullName</t>
-  </si>
-  <si>
-    <t>abcd123&amp;#*$()</t>
-  </si>
-  <si>
     <t>6666600022</t>
+  </si>
+  <si>
+    <t>110091++++++++++++@#%@#%#^$%&amp;&amp;)*)!#$!</t>
+  </si>
+  <si>
+    <t>&lt;/h2&gt;special offer &lt;a href=www.attacker.site&gt;malicious link&lt;/a&gt;&lt;h2&gt;</t>
+  </si>
+  <si>
+    <t>InValid FullName with HTMLINJECTIONS</t>
+  </si>
+  <si>
+    <t>InValid MobileNumber with Email</t>
+  </si>
+  <si>
+    <t>InValid MobileNumber with DOB</t>
+  </si>
+  <si>
+    <t>InValid MobileNumber with HTMLINJECTIONS</t>
+  </si>
+  <si>
+    <t>InValid MobileNumber with Pincode</t>
+  </si>
+  <si>
+    <t>Y+!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>InValid MobileNumber with AlphaNumeric</t>
+  </si>
+  <si>
+    <t>8123123Yes</t>
+  </si>
+  <si>
+    <t>Valid Refer a friend details</t>
+  </si>
+  <si>
+    <t>Valid_MobileNumber</t>
+  </si>
+  <si>
+    <t>Valid_Friend'sName</t>
+  </si>
+  <si>
+    <t>InValid Refer a friend details</t>
+  </si>
+  <si>
+    <t>MyName</t>
+  </si>
+  <si>
+    <t>InValid Friend'sName with Email</t>
+  </si>
+  <si>
+    <t>InValid Friend'sName with DOB</t>
+  </si>
+  <si>
+    <t>InValid Friend'sName with HTMLINJECTIONS</t>
+  </si>
+  <si>
+    <t>InValid Friend'sName with Pincode</t>
+  </si>
+  <si>
+    <t>Valid_State</t>
+  </si>
+  <si>
+    <t>Valid_City</t>
+  </si>
+  <si>
+    <t>Valid_ModelName</t>
+  </si>
+  <si>
+    <t>delhi</t>
+  </si>
+  <si>
+    <t>Destini 125</t>
+  </si>
+  <si>
+    <t>new delhi</t>
   </si>
 </sst>
 </file>
@@ -694,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -706,7 +763,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B1" s="9"/>
     </row>
@@ -715,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -723,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -736,10 +793,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -759,25 +816,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D31A8F-3FBA-4F47-85D0-BA6DBB6214F8}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="39.08984375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -793,24 +831,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -826,12 +864,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,7 +880,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -859,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -906,7 +944,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -914,15 +952,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -930,7 +968,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -959,15 +997,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
@@ -975,26 +1013,26 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -1017,15 +1055,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>11</v>
@@ -1033,26 +1071,26 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1072,7 +1110,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>13</v>
@@ -1080,7 +1118,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
         <v>14</v>
@@ -1088,26 +1126,26 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1139,24 +1177,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC974FB1-DE16-4A47-8399-1BAE83A3EDA8}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.90625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.81640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.54296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B1" s="11"/>
     </row>
@@ -1165,7 +1203,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1173,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1181,61 +1219,96 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>22</v>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1316,129 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{5E64759D-E8FF-4C48-A0DE-E6DE01890F3F}"/>
+    <hyperlink ref="B18" r:id="rId2" display="gunjan007@gmail.com" xr:uid="{1EED5F04-4199-46F9-9362-A43E0793ABDE}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{0A8A9558-F3D8-438C-9775-62E927769CC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AD3DBC-E355-41E0-8CA6-818EB8E40574}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.453125" customWidth="1"/>
+    <col min="2" max="2" width="62.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{6DF8A508-2F17-4B0E-81CD-0ECC4C12286A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1263,30 +1458,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1315,62 +1510,62 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="11"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1402,16 +1597,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D8D2B4-E9D0-4EF9-9A59-A5D76613E0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DB16B6-F430-4D9B-B37C-65A21339C452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login Page" sheetId="1" r:id="rId1"/>
@@ -273,9 +273,6 @@
     <t>Invalid Emergency_Contacts_details</t>
   </si>
   <si>
-    <t>6666600022</t>
-  </si>
-  <si>
     <t>110091++++++++++++@#%@#%#^$%&amp;&amp;)*)!#$!</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>new delhi</t>
+  </si>
+  <si>
+    <t>8800996677</t>
   </si>
 </sst>
 </file>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1254,10 +1254,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1265,7 +1265,7 @@
         <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -1273,7 +1273,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>14</v>
@@ -1281,7 +1281,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>43</v>
@@ -1289,26 +1289,26 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AD3DBC-E355-41E0-8CA6-818EB8E40574}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1341,21 +1341,21 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="11"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>21</v>
@@ -1363,26 +1363,26 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -1393,13 +1393,13 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="11"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>43</v>
@@ -1415,18 +1415,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
